--- a/SNAP Project/part_ben_89to18.xlsx
+++ b/SNAP Project/part_ben_89to18.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyangdai/Desktop/MACSS/5th Quarter/Data Visualization/SNAP/SNAP Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBE22F6-8BBF-3444-A322-3B08152D95E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DEB6C-BB5E-AF41-BA90-A7C5EBA4F5D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="2380" windowWidth="25240" windowHeight="12660" xr2:uid="{0562B67A-2CC5-0141-8B37-0B8E1B89D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,8 +738,8 @@
       <c r="B28" s="5">
         <v>45766671.666699998</v>
       </c>
-      <c r="C28" s="2">
-        <v>257.69000833333331</v>
+      <c r="C28">
+        <v>126.81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -749,8 +749,8 @@
       <c r="B29" s="5">
         <v>44219362.833300002</v>
       </c>
-      <c r="C29" s="2">
-        <v>254.613</v>
+      <c r="C29">
+        <v>125.4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -760,8 +760,8 @@
       <c r="B30" s="5">
         <v>42123300.916699998</v>
       </c>
-      <c r="C30" s="2">
-        <v>254.381925</v>
+      <c r="C30">
+        <v>125.83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
